--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEBBIE\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
   <si>
     <t>Apostolia</t>
   </si>
@@ -100,13 +105,16 @@
   </si>
   <si>
     <t xml:space="preserve">Presentation </t>
+  </si>
+  <si>
+    <t>DOne</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,7 +239,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -501,27 +509,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -543,7 +551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -554,7 +562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -571,7 +579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -579,7 +587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -590,15 +598,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -609,7 +620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -620,23 +631,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -644,7 +661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -653,15 +670,18 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -672,15 +692,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="I16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -691,7 +714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -705,7 +728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1">
+    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -719,10 +742,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1">
+    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
@@ -731,7 +754,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>24</v>
       </c>
@@ -740,7 +763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>42688</v>
       </c>
@@ -749,7 +772,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>42705</v>
       </c>
@@ -758,7 +781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>42716</v>
       </c>
@@ -767,8 +790,38 @@
         <v>2</v>
       </c>
     </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>42732</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>42733</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>42371</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
